--- a/Game_Review.xlsx
+++ b/Game_Review.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\School\2021\Digital Technology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1M6Jt2JL1HB-9_qgOr-N_TtdEFtoNP0m9\Jacob - Digital Tech 2021 - P1\Individual Task\Website-Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF35993-FF32-4FCA-A44B-A25C6465F94C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E33A390-42D7-4549-87AA-500A2D9B020C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{7EF675AD-ED23-4EC0-860A-E9027D2740DA}"/>
   </bookViews>
@@ -69,36 +69,15 @@
     <t>PC</t>
   </si>
   <si>
-    <t>Xbox 360, PC</t>
-  </si>
-  <si>
     <t>Battle royale game</t>
   </si>
   <si>
     <t>Genre:</t>
   </si>
   <si>
-    <t>Action Game, Third-Person Shooter, Nonlinear Gameplay, Adventure</t>
-  </si>
-  <si>
     <t>First-Person shooter</t>
   </si>
   <si>
-    <t>Tactical Shooter, Free to Play</t>
-  </si>
-  <si>
-    <t>Multiplayer Online Battle Arena, Entertainment, Fantasy, Action Role-Playing Game, Speculative Fiction, Free to play, Societal, Strategy</t>
-  </si>
-  <si>
-    <t>First-Person shooter, Free to Play</t>
-  </si>
-  <si>
-    <t>First-Person shooter, Survival Horror</t>
-  </si>
-  <si>
-    <t>Virtual Reality, Indie Game, Adventure Game, Puzzle Video Game, Survival Horror</t>
-  </si>
-  <si>
     <t>Sandbox</t>
   </si>
   <si>
@@ -108,18 +87,12 @@
     <t>The Last Of Us Part II</t>
   </si>
   <si>
-    <t>PC, PlayStation 3, Xbox 360, Wii U</t>
-  </si>
-  <si>
     <t>Survival horror genre</t>
   </si>
   <si>
     <t>First-person shooter</t>
   </si>
   <si>
-    <t>PC, MacOS, PlayStation 3, PlayStation 4, Xbox 360, Xbox One</t>
-  </si>
-  <si>
     <t>infamous second son</t>
   </si>
   <si>
@@ -135,24 +108,6 @@
     <t>Marvel Spider-Man</t>
   </si>
   <si>
-    <t>PlayStation 4, Xbox one, PC</t>
-  </si>
-  <si>
-    <t>PlayStation 3, PlayStation 4, PlayStation 5, Xbox 360, Xbox one, Xbox Series x, PC</t>
-  </si>
-  <si>
-    <t>PlayStation 4, PlayStation 5, Xbox one, Xbox Series x, PC</t>
-  </si>
-  <si>
-    <t>PlayStation 3, Xbox 360, PC</t>
-  </si>
-  <si>
-    <t>PlayStation 3, PlayStation 4, Xbox 360, Xbox one, PC</t>
-  </si>
-  <si>
-    <t>PlayStation 4, PlayStation 5</t>
-  </si>
-  <si>
     <t>God Of War</t>
   </si>
   <si>
@@ -165,42 +120,18 @@
     <t>Marvel Spider-Man Miles Morales</t>
   </si>
   <si>
-    <t>Action-adventure, Fighting game, nonlinear gameplay</t>
-  </si>
-  <si>
-    <t>Action-adventure, Platform Game, Hack and Slash</t>
-  </si>
-  <si>
     <t>Cyberpunk 2077</t>
   </si>
   <si>
-    <t>PlayStation 4, PlayStation 5, PC, Xbox One, Xbox Series X</t>
-  </si>
-  <si>
-    <t>Role-Playing Game, Adventure Game, Fighting Game, Shooting Video Game</t>
-  </si>
-  <si>
     <t>Fall Guys</t>
   </si>
   <si>
-    <t>Nintendo Switch, PlayStation 4, Mobile, Xbox One, Xbox Series X, PC</t>
-  </si>
-  <si>
-    <t>Battle royale game, Platform Game, Indie Game, Racing Game, Massively Multiplayer, Sport Video Game, Simulation Game</t>
-  </si>
-  <si>
     <t>Watch Dogs: Legion</t>
   </si>
   <si>
-    <t xml:space="preserve">	Single-player, multiplayer</t>
-  </si>
-  <si>
     <t>Marvel's Avengers</t>
   </si>
   <si>
-    <t>Fighting Game, Role-Play Game, Shooting Game, Action-Adventure, Beat 'em up, Adventure</t>
-  </si>
-  <si>
     <t>Apex Legends</t>
   </si>
   <si>
@@ -213,33 +144,9 @@
     <t>Call of Duty: Black Ops 4</t>
   </si>
   <si>
-    <t>Nintendo Switch, PlayStation 4, Mobile, Xbox One, PC</t>
-  </si>
-  <si>
-    <t>Battle Royale Game, Hero Shooting</t>
-  </si>
-  <si>
     <t>Multiplayer</t>
   </si>
   <si>
-    <t>Survival Game, First-Person Shooter, Role-Playing Video game, Massively Multiplayer online game, Indie Game, Action Game, Adventure</t>
-  </si>
-  <si>
-    <t>Single-player, Multiplayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Single-player, Multiplayer</t>
-  </si>
-  <si>
-    <t>Puzzle Video Game, Fighting Game, Role-Playing Video Game, Action-Adventure, Adventure</t>
-  </si>
-  <si>
-    <t>Action-Adventure Game, Shooting Video Game, Western, Entertainment, Fiction, Nonlinear GamePlay, Adventure, Socialtal</t>
-  </si>
-  <si>
-    <t>Battle Royale Game, First-Person Shooting</t>
-  </si>
-  <si>
     <t>Mode(s)</t>
   </si>
   <si>
@@ -252,12 +159,6 @@
     <t>Horizon Zero Dawn</t>
   </si>
   <si>
-    <t>PlayStation 4, PC</t>
-  </si>
-  <si>
-    <t>Shooter Video Game, Action-Adventure, Action Role-Playing Game, Nonlinear Gameplay</t>
-  </si>
-  <si>
     <t>Pokémon GO</t>
   </si>
   <si>
@@ -270,27 +171,15 @@
     <t>Watch Dogs 2</t>
   </si>
   <si>
-    <t>Action-Adventure, Nonlinear Gameplay, Third-Person Shooter, Adventure</t>
-  </si>
-  <si>
     <t>Titanfall 2</t>
   </si>
   <si>
     <t>No Man's Sky</t>
   </si>
   <si>
-    <t>PlayStation 4, PlayStation 5, PC, Xbox One, Xbox Series X, Android</t>
-  </si>
-  <si>
-    <t>Survival Game, Shooting Video Game, Action-Adventure Game, Strategy Video Game, Nonlinear Gameplay</t>
-  </si>
-  <si>
     <t>https://cdn2.unrealengine.com/Diesel%2Fproductv2%2Fgrand-theft-auto-v%2Fhome%2FGTAV_EGS_Artwork_1920x1080_Hero-Carousel_V06-1920x1080-1503e4b1320d5652dd4f57466c8bcb79424b3fc0.jpg</t>
   </si>
   <si>
-    <t>https://hb.imgix.net/3dfe9c3ca8e5af64d87d6f8fa54cd082f6cbcd93.png?auto=compress,format&amp;fit=crop&amp;h=353&amp;w=616&amp;s=5f405a16d0a660f6e7c4a616dd3a9437</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSNVVn27OoHbKvawLmXGk8_h7BEy6rwrKN-wuIvL5OTheMXu6Ygk6v3HKbEcUKVl4sHp3g:https://cdn.cloudflare.steamstatic.com/steam/apps/252490/capsule_616x353.jpg%3Ft%3D1629866274&amp;usqp=CAU</t>
   </si>
   <si>
@@ -373,6 +262,117 @@
   </si>
   <si>
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/275850/header.jpg?t=1622639949</t>
+  </si>
+  <si>
+    <t>PlayStation 3 | PlayStation 4 | PlayStation 5 | Xbox 360 | Xbox one | Xbox Series x | PC</t>
+  </si>
+  <si>
+    <t>Action Game | Third-Person Shooter | Nonlinear Gameplay | Adventure</t>
+  </si>
+  <si>
+    <t>Single-player | Multiplayer</t>
+  </si>
+  <si>
+    <t>PlayStation 4 | PlayStation 5 | Xbox one | Xbox Series x | PC</t>
+  </si>
+  <si>
+    <t>https://hb.imgix.net/3dfe9c3ca8e5af64d87d6f8fa54cd082f6cbcd93.png?auto=compress |format&amp;fit=crop&amp;h=353&amp;w=616&amp;s=5f405a16d0a660f6e7c4a616dd3a9437</t>
+  </si>
+  <si>
+    <t>PlayStation 4 | Xbox one | PC</t>
+  </si>
+  <si>
+    <t>Survival Game | First-Person Shooter | Role-Playing Video game | Massively Multiplayer online game | Indie Game | Action Game | Adventure</t>
+  </si>
+  <si>
+    <t>PlayStation 3 | Xbox 360 | PC</t>
+  </si>
+  <si>
+    <t>Tactical Shooter | Free to Play</t>
+  </si>
+  <si>
+    <t>Multiplayer Online Battle Arena | Entertainment | Fantasy | Action Role-Playing Game | Speculative Fiction | Free to play | Societal | Strategy</t>
+  </si>
+  <si>
+    <t>First-Person shooter | Free to Play</t>
+  </si>
+  <si>
+    <t>Xbox 360 | PC</t>
+  </si>
+  <si>
+    <t>First-Person shooter | Survival Horror</t>
+  </si>
+  <si>
+    <t>Virtual Reality | Indie Game | Adventure Game | Puzzle Video Game | Survival Horror</t>
+  </si>
+  <si>
+    <t>PlayStation 3 | PlayStation 4 | Xbox 360 | Xbox one | PC</t>
+  </si>
+  <si>
+    <t>PC | PlayStation 3 | Xbox 360 | Wii U</t>
+  </si>
+  <si>
+    <t>PC | MacOS | PlayStation 3 | PlayStation 4 | Xbox 360 | Xbox One</t>
+  </si>
+  <si>
+    <t>PlayStation 4 | PlayStation 5</t>
+  </si>
+  <si>
+    <t>Action-adventure | Fighting game | nonlinear gameplay</t>
+  </si>
+  <si>
+    <t>Action-adventure | Platform Game | Hack and Slash</t>
+  </si>
+  <si>
+    <t>PlayStation 4 | PlayStation 5 | PC | Xbox One | Xbox Series X</t>
+  </si>
+  <si>
+    <t>Role-Playing Game | Adventure Game | Fighting Game | Shooting Video Game</t>
+  </si>
+  <si>
+    <t>Nintendo Switch | PlayStation 4 | Mobile | Xbox One | Xbox Series X | PC</t>
+  </si>
+  <si>
+    <t>Battle royale game | Platform Game | Indie Game | Racing Game | Massively Multiplayer | Sport Video Game | Simulation Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Single-player | Multiplayer</t>
+  </si>
+  <si>
+    <t>Fighting Game | Role-Play Game | Shooting Game | Action-Adventure | Beat 'em up | Adventure</t>
+  </si>
+  <si>
+    <t>Nintendo Switch | PlayStation 4 | Mobile | Xbox One | PC</t>
+  </si>
+  <si>
+    <t>Battle Royale Game | Hero Shooting</t>
+  </si>
+  <si>
+    <t>Puzzle Video Game | Fighting Game | Role-Playing Video Game | Action-Adventure | Adventure</t>
+  </si>
+  <si>
+    <t>Action-Adventure Game | Shooting Video Game | Western | Entertainment | Fiction | Nonlinear GamePlay | Adventure | Socialtal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Single-player | multiplayer</t>
+  </si>
+  <si>
+    <t>Battle Royale Game | First-Person Shooting</t>
+  </si>
+  <si>
+    <t>PlayStation 4 | PC</t>
+  </si>
+  <si>
+    <t>Shooter Video Game | Action-Adventure | Action Role-Playing Game | Nonlinear Gameplay</t>
+  </si>
+  <si>
+    <t>Action-Adventure | Nonlinear Gameplay | Third-Person Shooter | Adventure</t>
+  </si>
+  <si>
+    <t>PlayStation 4 | PlayStation 5 | PC | Xbox One | Xbox Series X | Android</t>
+  </si>
+  <si>
+    <t>Survival Game | Shooting Video Game | Action-Adventure Game | Strategy Video Game | Nonlinear Gameplay</t>
   </si>
 </sst>
 </file>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44BA827-AF0D-4881-B6CE-E61A11DD4E36}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,13 +770,13 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -787,16 +787,16 @@
         <v>2013</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -807,16 +807,16 @@
         <v>2015</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -827,16 +827,16 @@
         <v>2013</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -847,16 +847,16 @@
         <v>2012</v>
       </c>
       <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -870,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -887,16 +887,16 @@
         <v>2007</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -907,16 +907,16 @@
         <v>2009</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -930,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -947,16 +947,16 @@
         <v>2011</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -967,416 +967,416 @@
         <v>2017</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>2020</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>2015</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>2018</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>2018</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>2020</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>2020</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>2020</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>2020</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>2020</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>2019</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>2019</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>2018</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>2017</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>2016</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>2016</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>2016</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>2016</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
